--- a/static/templates/transfer_template.xlsx
+++ b/static/templates/transfer_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Work_Freelance\Tour\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04D5AF9-99DF-40D1-A3B9-FF435F4BBDA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF86E5FE-D1A6-4A70-ACE8-63DC6B01F341}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="744" windowWidth="30240" windowHeight="18900" xr2:uid="{1F82F821-8D6E-7643-BBAF-FED4C6234257}"/>
+    <workbookView xWindow="0" yWindow="750" windowWidth="30240" windowHeight="18900" xr2:uid="{1F82F821-8D6E-7643-BBAF-FED4C6234257}"/>
   </bookViews>
   <sheets>
     <sheet name="Transfer" sheetId="3" r:id="rId1"/>
@@ -23,23 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>BOOKING CONFIRMATION</t>
   </si>
@@ -68,9 +57,6 @@
     <t>TEL : +66 77 420 789    E-MAIL : info@lamaibayviewboutique.co.th</t>
   </si>
   <si>
-    <t>PAYMENT</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -138,6 +124,15 @@
   </si>
   <si>
     <t>Travel date</t>
+  </si>
+  <si>
+    <t>REMARK</t>
+  </si>
+  <si>
+    <t>PAYMENT METHOD</t>
+  </si>
+  <si>
+    <t>STATUS</t>
   </si>
 </sst>
 </file>
@@ -147,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,42 +160,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="16"/>
       <name val="THSarabunNew"/>
       <charset val="222"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
       <name val="THSarabunNew"/>
       <charset val="222"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
       <name val="THSarabunNew"/>
       <charset val="222"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
       <name val="THSarabunNew"/>
       <charset val="222"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF66614D"/>
-      <name val="THSarabunNew"/>
+      <sz val="12"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="222"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFC00000"/>
-      <name val="THSarabunNew"/>
-      <charset val="222"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -301,44 +287,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -370,7 +353,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
+      <xdr:colOff>324338</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>289880</xdr:rowOff>
     </xdr:to>
@@ -781,422 +764,435 @@
   </sheetPr>
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="1.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="1.26953125" style="2" customWidth="1"/>
-    <col min="4" max="7" width="10.7265625" style="2"/>
-    <col min="8" max="8" width="9.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="1.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="1.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.77734375" style="1"/>
+    <col min="7" max="7" width="11.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="1.21875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1">
-      <c r="J1" s="6" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1">
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="26.25">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1">
+      <c r="I3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1">
+      <c r="I4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1"/>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1"/>
+    <row r="11" spans="1:11" s="1" customFormat="1">
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="7.9" customHeight="1"/>
+    <row r="13" spans="1:11" s="1" customFormat="1">
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="7.9" customHeight="1">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" s="6" customFormat="1">
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" s="6" customFormat="1">
+      <c r="B16" s="5"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" s="6" customFormat="1">
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" s="6" customFormat="1">
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" s="6" customFormat="1">
+      <c r="B19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" s="6" customFormat="1">
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="24.6" customHeight="1">
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1">
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1"/>
+    <row r="24" spans="1:11" s="1" customFormat="1">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1">
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1"/>
+    <row r="28" spans="1:11" s="1" customFormat="1">
+      <c r="J28" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="27">
-      <c r="A2" s="22" t="s">
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="26.25">
+      <c r="A29" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1">
-      <c r="I3" s="5" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+    </row>
+    <row r="30" spans="1:11" s="1" customFormat="1">
+      <c r="I30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J30" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1">
-      <c r="I4" s="5" t="s">
+    <row r="31" spans="1:11" s="1" customFormat="1">
+      <c r="I31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J31" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="6" customHeight="1"/>
-    <row r="6" spans="1:11" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="B6" s="1" t="s">
+    <row r="32" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1"/>
+    <row r="33" spans="2:10" s="1" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="B33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="B7" s="1" t="s">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="2:10" s="1" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="B34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="6" customHeight="1">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="B9" s="1" t="s">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="2:10" s="1" customFormat="1" ht="6" customHeight="1">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="2:10" s="1" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="B36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" s="2" customFormat="1"/>
-    <row r="11" spans="1:11" s="2" customFormat="1">
-      <c r="B11" s="2" t="s">
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="2:10" s="1" customFormat="1"/>
+    <row r="38" spans="2:10" s="1" customFormat="1">
+      <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" s="1" customFormat="1" ht="7.9" customHeight="1"/>
+    <row r="40" spans="2:10" s="1" customFormat="1">
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" s="1" customFormat="1" ht="7.9" customHeight="1">
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="2:10" s="6" customFormat="1">
+      <c r="B42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="2:10" s="6" customFormat="1">
+      <c r="B43" s="5"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="2:10" s="6" customFormat="1">
+      <c r="B44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="2:10" s="6" customFormat="1">
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="2:10" s="6" customFormat="1">
+      <c r="B46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="7.95" customHeight="1"/>
-    <row r="13" spans="1:11" s="2" customFormat="1" ht="49.2">
-      <c r="B13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="16" t="s">
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="2:10" s="6" customFormat="1">
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+    </row>
+    <row r="48" spans="2:10" s="1" customFormat="1" ht="24.6" customHeight="1">
+      <c r="B48" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" ht="7.95" customHeight="1">
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" s="8" customFormat="1">
-      <c r="B15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" s="8" customFormat="1">
-      <c r="B16" s="15"/>
-      <c r="D16" s="13"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" s="8" customFormat="1">
-      <c r="B17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" s="8" customFormat="1">
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" s="8" customFormat="1">
-      <c r="B19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="1:11" s="8" customFormat="1">
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="1:11" s="2" customFormat="1" ht="10.050000000000001" customHeight="1"/>
-    <row r="22" spans="1:11" s="2" customFormat="1">
-      <c r="B22" s="2" t="s">
+    <row r="49" spans="2:9" s="1" customFormat="1">
+      <c r="B49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="F49" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" s="1" customFormat="1"/>
+    <row r="51" spans="2:9" s="1" customFormat="1">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" s="1" customFormat="1">
+      <c r="B52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="2" customFormat="1"/>
-    <row r="24" spans="1:11" s="2" customFormat="1">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="2" customFormat="1">
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="2" customFormat="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" s="2" customFormat="1"/>
-    <row r="28" spans="1:11" s="2" customFormat="1">
-      <c r="J28" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="2" customFormat="1" ht="27">
-      <c r="A29" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-    </row>
-    <row r="30" spans="1:11" s="2" customFormat="1">
-      <c r="I30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="2" customFormat="1">
-      <c r="I31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="2" customFormat="1" ht="6" customHeight="1"/>
-    <row r="33" spans="2:10" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="2:10" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="2:10" s="2" customFormat="1" ht="6" customHeight="1">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="2:10" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="B36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="2:10" s="2" customFormat="1"/>
-    <row r="38" spans="2:10" s="2" customFormat="1">
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="2:10" s="2" customFormat="1" ht="7.95" customHeight="1"/>
-    <row r="40" spans="2:10" s="2" customFormat="1" ht="49.2">
-      <c r="B40" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" s="2" customFormat="1" ht="7.95" customHeight="1">
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="2:10" s="8" customFormat="1">
-      <c r="B42" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-    </row>
-    <row r="43" spans="2:10" s="8" customFormat="1">
-      <c r="B43" s="15"/>
-      <c r="D43" s="13"/>
-      <c r="J43" s="14"/>
-    </row>
-    <row r="44" spans="2:10" s="8" customFormat="1">
-      <c r="B44" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J44" s="14"/>
-    </row>
-    <row r="45" spans="2:10" s="8" customFormat="1">
-      <c r="J45" s="14"/>
-    </row>
-    <row r="46" spans="2:10" s="8" customFormat="1">
-      <c r="B46" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="18"/>
-    </row>
-    <row r="47" spans="2:10" s="8" customFormat="1">
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" s="2" customFormat="1" ht="10.050000000000001" customHeight="1"/>
-    <row r="49" spans="2:9" s="2" customFormat="1">
-      <c r="B49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" s="2" customFormat="1"/>
-    <row r="51" spans="2:9" s="2" customFormat="1">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" s="2" customFormat="1">
-      <c r="B52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" s="2" customFormat="1"/>
+    <row r="53" spans="2:9" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A29:K29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/static/templates/transfer_template.xlsx
+++ b/static/templates/transfer_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Work_Freelance\Tour\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF86E5FE-D1A6-4A70-ACE8-63DC6B01F341}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040363D7-A69B-4E79-924B-F5A14F70D485}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="750" windowWidth="30240" windowHeight="18900" xr2:uid="{1F82F821-8D6E-7643-BBAF-FED4C6234257}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
   <si>
     <t>BOOKING CONFIRMATION</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>STATUS</t>
+  </si>
+  <si>
+    <t>PAYMENT</t>
   </si>
 </sst>
 </file>
@@ -308,21 +311,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -764,8 +777,8 @@
   </sheetPr>
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A35" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="25.5"/>
@@ -775,12 +788,12 @@
     <col min="3" max="3" width="1.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
     <col min="5" max="6" width="10.77734375" style="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.21875" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.77734375" style="1" customWidth="1"/>
     <col min="11" max="11" width="1.21875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.88671875" style="18"/>
+    <col min="12" max="16384" width="10.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1">
@@ -789,19 +802,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="26.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
       <c r="I3" s="3" t="s">
@@ -820,13 +833,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1"/>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="16.149999999999999" customHeight="1">
+    <row r="6" spans="1:11" s="1" customFormat="1">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="16.149999999999999" customHeight="1">
+    <row r="7" spans="1:11" s="1" customFormat="1">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -836,7 +849,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="16.149999999999999" customHeight="1">
+    <row r="9" spans="1:11" s="1" customFormat="1">
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
@@ -920,29 +933,32 @@
       <c r="C19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:11" s="6" customFormat="1">
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="24.6" customHeight="1">
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1">
       <c r="B22" s="1" t="s">
@@ -954,17 +970,20 @@
       <c r="F22" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="H22" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1"/>
     <row r="24" spans="1:11" s="1" customFormat="1">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="1" t="s">
         <v>13</v>
       </c>
@@ -978,17 +997,17 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1"/>
     <row r="28" spans="1:11" s="1" customFormat="1">
@@ -997,19 +1016,19 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" ht="26.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1">
       <c r="I30" s="3" t="s">
@@ -1028,13 +1047,13 @@
       </c>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1"/>
-    <row r="33" spans="2:10" s="1" customFormat="1" ht="16.149999999999999" customHeight="1">
+    <row r="33" spans="2:10" s="1" customFormat="1">
       <c r="B33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="2:10" s="1" customFormat="1" ht="16.149999999999999" customHeight="1">
+    <row r="34" spans="2:10" s="1" customFormat="1">
       <c r="B34" s="4" t="s">
         <v>7</v>
       </c>
@@ -1044,7 +1063,7 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="2:10" s="1" customFormat="1" ht="16.149999999999999" customHeight="1">
+    <row r="36" spans="2:10" s="1" customFormat="1">
       <c r="B36" s="4" t="s">
         <v>8</v>
       </c>
@@ -1128,29 +1147,32 @@
       <c r="C46" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="12"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
     </row>
     <row r="47" spans="2:10" s="6" customFormat="1">
-      <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="19"/>
     </row>
     <row r="48" spans="2:10" s="1" customFormat="1" ht="24.6" customHeight="1">
       <c r="B48" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="D48" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="49" spans="2:9" s="1" customFormat="1">
       <c r="B49" s="1" t="s">
@@ -1162,17 +1184,20 @@
       <c r="F49" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="H49" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="50" spans="2:9" s="1" customFormat="1"/>
     <row r="51" spans="2:9" s="1" customFormat="1">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
       <c r="I51" s="1" t="s">
         <v>13</v>
       </c>
@@ -1187,12 +1212,14 @@
     </row>
     <row r="53" spans="2:9" s="1" customFormat="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A29:K29"/>
+    <mergeCell ref="D19:J20"/>
+    <mergeCell ref="D46:J47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/static/templates/transfer_template.xlsx
+++ b/static/templates/transfer_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Work_Freelance\Tour\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040363D7-A69B-4E79-924B-F5A14F70D485}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AA61A9-AA75-4078-8C78-B7FDD1E2B62B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="750" windowWidth="30240" windowHeight="18900" xr2:uid="{1F82F821-8D6E-7643-BBAF-FED4C6234257}"/>
+    <workbookView xWindow="0" yWindow="756" windowWidth="30240" windowHeight="18900" xr2:uid="{1F82F821-8D6E-7643-BBAF-FED4C6234257}"/>
   </bookViews>
   <sheets>
     <sheet name="Transfer" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>BOOKING CONFIRMATION</t>
   </si>
@@ -39,15 +39,9 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>Booking date</t>
-  </si>
-  <si>
     <t>BOOKING NO.</t>
   </si>
   <si>
-    <t>Booking No.</t>
-  </si>
-  <si>
     <t>Lamai Bayview Boutique Resort</t>
   </si>
   <si>
@@ -57,15 +51,6 @@
     <t>TEL : +66 77 420 789    E-MAIL : info@lamaibayviewboutique.co.th</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Name &amp; Surname</t>
-  </si>
-  <si>
-    <t>Staff Name</t>
-  </si>
-  <si>
     <t>STAFF</t>
   </si>
   <si>
@@ -78,18 +63,6 @@
     <t>DUPLICATE</t>
   </si>
   <si>
-    <t>Name&amp;Surmane</t>
-  </si>
-  <si>
-    <t>Detail</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
     <t>FROM</t>
   </si>
   <si>
@@ -105,27 +78,15 @@
     <t>THB</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
     <t>DETAILS</t>
   </si>
   <si>
     <t>:</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>TIME</t>
   </si>
   <si>
-    <t>Travel date</t>
-  </si>
-  <si>
     <t>REMARK</t>
   </si>
   <si>
@@ -133,9 +94,6 @@
   </si>
   <si>
     <t>STATUS</t>
-  </si>
-  <si>
-    <t>PAYMENT</t>
   </si>
 </sst>
 </file>
@@ -313,11 +271,11 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -777,71 +735,65 @@
   </sheetPr>
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A35" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="25.5"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="24.6"/>
   <cols>
-    <col min="1" max="1" width="1.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="1.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.77734375" style="1"/>
-    <col min="7" max="7" width="12.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="1.21875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.88671875" style="11"/>
+    <col min="1" max="1" width="1.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="1.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.81640625" style="1"/>
+    <col min="7" max="7" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="1.1796875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.90625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="26.25">
-      <c r="A2" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1">
       <c r="I4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1"/>
     <row r="6" spans="1:11" s="1" customFormat="1">
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1">
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -851,7 +803,7 @@
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1">
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -860,44 +812,32 @@
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="7.9" customHeight="1"/>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="7.95" customHeight="1"/>
     <row r="13" spans="1:11" s="1" customFormat="1">
       <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="7.9" customHeight="1">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="7.95" customHeight="1">
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:11" s="6" customFormat="1">
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
@@ -907,19 +847,13 @@
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1">
       <c r="B17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J17" s="9"/>
     </row>
@@ -928,14 +862,12 @@
     </row>
     <row r="19" spans="1:11" s="6" customFormat="1">
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="D19" s="14"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
@@ -954,25 +886,17 @@
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="24.6" customHeight="1">
       <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1">
       <c r="B22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>35</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1"/>
     <row r="24" spans="1:11" s="1" customFormat="1">
@@ -980,22 +904,15 @@
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="1" customFormat="1">
-      <c r="B25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1"/>
     <row r="26" spans="1:11" s="1" customFormat="1">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
@@ -1012,50 +929,44 @@
     <row r="27" spans="1:11" s="1" customFormat="1"/>
     <row r="28" spans="1:11" s="1" customFormat="1">
       <c r="J28" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" ht="26.25">
-      <c r="A29" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="27">
+      <c r="A29" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1">
       <c r="I30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1">
       <c r="I31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1"/>
     <row r="33" spans="2:10" s="1" customFormat="1">
       <c r="B33" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="2:10" s="1" customFormat="1">
       <c r="B34" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" s="4"/>
     </row>
@@ -1065,7 +976,7 @@
     </row>
     <row r="36" spans="2:10" s="1" customFormat="1">
       <c r="B36" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" s="4"/>
     </row>
@@ -1074,44 +985,32 @@
       <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" s="1" customFormat="1" ht="7.9" customHeight="1"/>
+    </row>
+    <row r="39" spans="2:10" s="1" customFormat="1" ht="7.95" customHeight="1"/>
     <row r="40" spans="2:10" s="1" customFormat="1">
       <c r="B40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" s="1" customFormat="1" ht="7.9" customHeight="1">
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="2:10" s="1" customFormat="1" ht="7.95" customHeight="1">
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="2:10" s="6" customFormat="1">
       <c r="B42" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C42" s="7"/>
-      <c r="D42" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H42" s="1"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
     </row>
@@ -1121,19 +1020,13 @@
     </row>
     <row r="44" spans="2:10" s="6" customFormat="1">
       <c r="B44" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J44" s="9"/>
     </row>
@@ -1142,14 +1035,12 @@
     </row>
     <row r="46" spans="2:10" s="6" customFormat="1">
       <c r="B46" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="D46" s="14"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
@@ -1168,25 +1059,17 @@
     </row>
     <row r="48" spans="2:10" s="1" customFormat="1" ht="24.6" customHeight="1">
       <c r="B48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="2:9" s="1" customFormat="1">
       <c r="B49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>35</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" spans="2:9" s="1" customFormat="1"/>
     <row r="51" spans="2:9" s="1" customFormat="1">
@@ -1194,22 +1077,15 @@
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" s="1" customFormat="1">
-      <c r="B52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" s="1" customFormat="1"/>
     <row r="53" spans="2:9" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="4">
@@ -1219,7 +1095,7 @@
     <mergeCell ref="D46:J47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/static/templates/transfer_template.xlsx
+++ b/static/templates/transfer_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Work_Freelance\Tour\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AA61A9-AA75-4078-8C78-B7FDD1E2B62B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E43A2A-BAD6-4AFC-9BAA-E1BD9F9CD668}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="756" windowWidth="30240" windowHeight="18900" xr2:uid="{1F82F821-8D6E-7643-BBAF-FED4C6234257}"/>
   </bookViews>
@@ -100,7 +100,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7">
@@ -248,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -294,6 +295,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -735,8 +754,8 @@
   </sheetPr>
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="24.6"/>
@@ -778,11 +797,13 @@
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1">
       <c r="I4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1"/>
     <row r="6" spans="1:11" s="1" customFormat="1">
@@ -812,32 +833,38 @@
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="7.95" customHeight="1"/>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="7.95" customHeight="1">
+      <c r="D12" s="12"/>
+    </row>
     <row r="13" spans="1:11" s="1" customFormat="1">
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D13" s="12"/>
       <c r="G13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="7.95" customHeight="1">
+      <c r="D14" s="12"/>
       <c r="G14" s="3"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:11" s="6" customFormat="1">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
@@ -846,13 +873,17 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="22" t="s">
         <v>13</v>
       </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="20"/>
       <c r="G17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="H17" s="24"/>
+      <c r="I17" s="23" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="9"/>
@@ -888,11 +919,13 @@
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1">
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D22" s="12"/>
       <c r="F22" s="1" t="s">
         <v>20</v>
       </c>
@@ -912,7 +945,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1"/>
+    <row r="25" spans="1:11" s="1" customFormat="1">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
     <row r="26" spans="1:11" s="1" customFormat="1">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
@@ -985,32 +1024,38 @@
       <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" s="1" customFormat="1" ht="7.95" customHeight="1"/>
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39" spans="2:10" s="1" customFormat="1" ht="7.95" customHeight="1">
+      <c r="D39" s="12"/>
+    </row>
     <row r="40" spans="2:10" s="1" customFormat="1">
       <c r="B40" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D40" s="12"/>
       <c r="G40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="6"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" spans="2:10" s="1" customFormat="1" ht="7.95" customHeight="1">
+      <c r="D41" s="12"/>
       <c r="G41" s="3"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="2:10" s="6" customFormat="1">
       <c r="B42" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="7"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="12"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="1"/>
+      <c r="H42" s="12"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
     </row>
@@ -1019,13 +1064,17 @@
       <c r="J43" s="9"/>
     </row>
     <row r="44" spans="2:10" s="6" customFormat="1">
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="22" t="s">
         <v>13</v>
       </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="20"/>
       <c r="G44" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="H44" s="21"/>
+      <c r="I44" s="23" t="s">
         <v>15</v>
       </c>
       <c r="J44" s="9"/>
@@ -1061,11 +1110,13 @@
       <c r="B48" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D48" s="12"/>
     </row>
     <row r="49" spans="2:9" s="1" customFormat="1">
       <c r="B49" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D49" s="12"/>
       <c r="F49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1085,14 +1136,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:9" s="1" customFormat="1"/>
+    <row r="52" spans="2:9" s="1" customFormat="1">
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+    </row>
     <row r="53" spans="2:9" s="1" customFormat="1"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="G52:H52"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="D19:J20"/>
     <mergeCell ref="D46:J47"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B44:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/static/templates/transfer_template.xlsx
+++ b/static/templates/transfer_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Work_Freelance\Tour\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E43A2A-BAD6-4AFC-9BAA-E1BD9F9CD668}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CA460C-1892-425D-8ED4-C184C7B511D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="756" windowWidth="30240" windowHeight="18900" xr2:uid="{1F82F821-8D6E-7643-BBAF-FED4C6234257}"/>
   </bookViews>
@@ -249,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -275,6 +275,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -299,20 +311,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -754,8 +757,8 @@
   </sheetPr>
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="24.6"/>
@@ -779,19 +782,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="27">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
       <c r="I3" s="3" t="s">
@@ -846,7 +849,7 @@
       <c r="G13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="7.95" customHeight="1">
       <c r="D14" s="12"/>
@@ -873,20 +876,20 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="20"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="14"/>
       <c r="G17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="23" t="s">
+      <c r="H17" s="25"/>
+      <c r="I17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="9"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:11" s="6" customFormat="1">
       <c r="J18" s="9"/>
@@ -898,22 +901,22 @@
       <c r="C19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:11" s="6" customFormat="1">
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="24.6" customHeight="1">
       <c r="B21" s="1" t="s">
@@ -946,11 +949,11 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1">
       <c r="A26" s="10"/>
@@ -972,19 +975,19 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" ht="27">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1">
       <c r="I30" s="3" t="s">
@@ -1037,7 +1040,7 @@
       <c r="G40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="20"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="2:10" s="1" customFormat="1" ht="7.95" customHeight="1">
       <c r="D41" s="12"/>
@@ -1064,20 +1067,20 @@
       <c r="J43" s="9"/>
     </row>
     <row r="44" spans="2:10" s="6" customFormat="1">
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="20"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="13"/>
       <c r="G44" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="23" t="s">
+      <c r="H44" s="14"/>
+      <c r="I44" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="9"/>
+      <c r="J44" s="26"/>
     </row>
     <row r="45" spans="2:10" s="6" customFormat="1">
       <c r="J45" s="9"/>
@@ -1089,22 +1092,22 @@
       <c r="C46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
     </row>
     <row r="47" spans="2:10" s="6" customFormat="1">
-      <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="19"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="23"/>
     </row>
     <row r="48" spans="2:10" s="1" customFormat="1" ht="24.6" customHeight="1">
       <c r="B48" s="1" t="s">
@@ -1137,11 +1140,11 @@
       </c>
     </row>
     <row r="52" spans="2:9" s="1" customFormat="1">
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
     </row>
     <row r="53" spans="2:9" s="1" customFormat="1"/>
   </sheetData>
